--- a/Financials/SEZL.xlsx
+++ b/Financials/SEZL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1BCDE9-8FC8-2948-8CD7-595F2BCFCBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68426DA1-2756-7748-9E67-0C09291F93C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -454,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -533,9 +533,6 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -552,9 +549,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,6 +673,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1939,11 +1936,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>243.05260000000001</v>
+    <v>269.16000000000003</v>
     <v>9.01</v>
     <v>2.6459999999999999</v>
-    <v>37.31</v>
-    <v>0.18224900000000002</v>
+    <v>8.44</v>
+    <v>3.4872E-2</v>
+    <v>37.53</v>
+    <v>0.149838</v>
     <v>USD</v>
     <v>Sezzle Inc. is a fintech company. The Company’s payment platform increases the purchasing power of consumers by offering interest-free installment plans at online stores and select in-store locations. Its payment options allow consumers to take control over their spending. Its digital payments platform allows merchants to offer their consumers a flexible alternative to traditional credit. Its Sezzle Platform offers a payments solution for consumers that instantly extends credit at the point-of-sale, allowing consumers to purchase and receive the ordered merchandise at the time of sale while paying in installments over time. The Sezzle Platform flagship product, pay-in-four, allows consumers to pay a fourth of the purchase price up front, and then another fourth of the purchase price every two weeks thereafter over a total of six weeks. Its Sezzle Virtual Card allows consumers to access the Sezzle Platform in the form of close-end installment loans and shop with merchants.</v>
     <v>251</v>
@@ -1951,23 +1950,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 NICOLET MALL, SUITE 640, MINNEAPOLIS, MN, 55402 US</v>
-    <v>243.05260000000001</v>
+    <v>269.16000000000003</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45602.907066053122</v>
-    <v>206.7801</v>
-    <v>1142357000</v>
+    <v>45604.038845497656</v>
+    <v>246.91720000000001</v>
+    <v>1350550000</v>
     <v>SEZZLE INC.</v>
     <v>SEZZLE INC.</v>
-    <v>214.51</v>
-    <v>34.527900000000002</v>
-    <v>204.72</v>
+    <v>249.62</v>
+    <v>35.7318</v>
     <v>242.03</v>
+    <v>250.47</v>
+    <v>288</v>
     <v>5580090</v>
     <v>SEZL</v>
     <v>SEZZLE INC. (XNAS:SEZL)</v>
-    <v>23</v>
-    <v>87276</v>
+    <v>142599</v>
+    <v>89443</v>
     <v>2016</v>
   </rv>
   <rv s="1">
@@ -1995,6 +1995,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2014,6 +2016,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2030,7 +2033,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2041,13 +2044,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2110,13 +2116,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2159,6 +2171,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2166,6 +2181,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2833,7 +2851,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2844,65 +2862,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="e" vm="1">
+      <c r="A1" s="69" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" cm="1">
+      <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>242.03</v>
+        <v>250.47</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>5.1690361990950224</v>
+        <v>6.1110859728506783</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="44">
         <f>E14</f>
         <v>0.46540880503144655</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="47" cm="1">
+      <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
         <v>5580090</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="45">
         <f>J18*(1+K4)/(I6-K4)</f>
         <v>2049999999.9999998</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="77"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
@@ -2911,41 +2929,41 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" cm="1">
+      <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>0.18224900000000002</v>
+        <v>3.4872E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>28.558924999999999</v>
+        <v>33.763750000000002</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="44">
         <f>F17</f>
         <v>0.18099547511312217</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="55">
         <v>67624000</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="45">
         <f>NPV(I6,F18,G18,H18,I18,(J18+I3))</f>
         <v>1627609452.9062216</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L4" s="14" t="s">
@@ -2959,41 +2977,41 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" cm="1">
+      <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>1142357000</v>
+        <v>1350550000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.7641472849555789E-2</v>
+        <v>3.1838880456110476E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="44">
         <f>F20</f>
         <v>0.19457013574660634</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="55">
         <v>95670000</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="45">
         <f>I4+G4-G5</f>
         <v>1599563452.9062216</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="47">
         <f ca="1">I5/G3</f>
         <v>286.65549353258132</v>
       </c>
@@ -3008,42 +3026,42 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" cm="1">
+      <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
         <v>2.6459999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="43">
         <f>K22</f>
         <v>0</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="54">
         <v>0.41</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="46">
         <f>G4-G5</f>
         <v>-28046000</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="53">
         <v>0.1</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>0.18438000881122729</v>
+        <v>0.14447036983503536</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3076,15 +3094,15 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="13"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3096,32 +3114,32 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57">
         <v>2020</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="57">
         <v>2021</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="57">
         <v>2022</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="58">
         <v>2023</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="59">
         <v>2024</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="59">
         <v>2025</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="59">
         <v>2026</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="59">
         <v>2027</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="60">
         <v>2028</v>
       </c>
       <c r="K9" s="13"/>
@@ -3149,22 +3167,22 @@
       <c r="E10" s="24">
         <v>159000000</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="61">
         <v>221000000</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="61">
         <v>290000000</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="61">
         <v>360000000</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="61">
         <v>420000000</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="61">
         <v>475000000</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="62" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="2"/>
@@ -3210,7 +3228,7 @@
         <f t="shared" si="0"/>
         <v>0.13095238095238093</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="63">
         <f>AVERAGE(F11:J11)</f>
         <v>0.24823053189045</v>
       </c>
@@ -3222,7 +3240,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
@@ -3243,7 +3261,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="66"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3252,27 +3270,27 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30">
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29">
         <f>(C12/B12)-1</f>
         <v>1.1428571428571428</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <f>(D12/C12)-1</f>
         <v>1.2666666666666666</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <f>(E12/D12)-1</f>
         <v>1.1764705882352939</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="67"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3281,7 +3299,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>1</v>
       </c>
@@ -3306,7 +3324,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="68"/>
+      <c r="K14" s="66"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3331,22 +3349,22 @@
       <c r="E15" s="24">
         <v>7000000</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="61">
         <v>40000000</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="61">
         <v>62000000</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="61">
         <v>80333333.333333001</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="61">
         <v>105047619.047619</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="61">
         <v>129761904.761905</v>
       </c>
-      <c r="K15" s="64" t="s">
+      <c r="K15" s="62" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="2"/>
@@ -3358,41 +3376,41 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29">
         <f t="shared" ref="C16:J16" si="1">(C15/B15)-1</f>
         <v>1.2727272727272729</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="29">
         <f t="shared" si="1"/>
         <v>-0.49333333333333329</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <f t="shared" si="1"/>
         <v>-1.1842105263157894</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <f t="shared" si="1"/>
         <v>4.7142857142857144</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="29">
         <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="29">
         <f t="shared" si="1"/>
         <v>0.29569892473117743</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="29">
         <f t="shared" si="1"/>
         <v>0.30764671013634159</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="30">
         <f t="shared" si="1"/>
         <v>0.23526745240254132</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="65">
         <f>AVERAGE(G16:J16)</f>
         <v>0.3471532718175151</v>
       </c>
@@ -3444,7 +3462,7 @@
         <f t="shared" si="2"/>
         <v>0.27318295739348419</v>
       </c>
-      <c r="K17" s="69"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3469,22 +3487,22 @@
       <c r="E18" s="24">
         <v>-6000000</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="61">
         <v>43000000</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="61">
         <v>75000000</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="61">
         <v>100000000</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="61">
         <v>125000000</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="61">
         <v>150000000</v>
       </c>
-      <c r="K18" s="64" t="s">
+      <c r="K18" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="2"/>
@@ -3495,41 +3513,41 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30">
+      <c r="A19" s="31"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29">
         <f t="shared" ref="C19:J19" si="3">(C18/B18)-1</f>
         <v>-6.25E-2</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="29">
         <f t="shared" si="3"/>
         <v>-1.8804666666666665</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <f t="shared" si="3"/>
         <v>-1.2271522677368063</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <f t="shared" si="3"/>
         <v>-8.1666666666666679</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <f t="shared" si="3"/>
         <v>0.7441860465116279</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <f t="shared" si="3"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="29">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="30">
         <f t="shared" si="3"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="65">
         <f>AVERAGE(G19:J19)</f>
         <v>0.38187984496124028</v>
       </c>
@@ -3542,46 +3560,46 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="35">
         <f t="shared" ref="B20:J20" si="4">B18/B10</f>
         <v>-0.5423728813559322</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="35">
         <f t="shared" si="4"/>
         <v>-0.2608695652173913</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="35">
         <f t="shared" si="4"/>
         <v>0.20963492063492065</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="36">
         <f t="shared" si="4"/>
         <v>-3.7735849056603772E-2</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="35">
         <f t="shared" si="4"/>
         <v>0.19457013574660634</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="35">
         <f t="shared" si="4"/>
         <v>0.25862068965517243</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="35">
         <f t="shared" si="4"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="35">
         <f t="shared" si="4"/>
         <v>0.29761904761904762</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="36">
         <f t="shared" si="4"/>
         <v>0.31578947368421051</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="68"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3590,7 +3608,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
@@ -3611,7 +3629,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="62" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="2"/>
@@ -3621,27 +3639,27 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="33">
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="32">
         <f t="shared" ref="C22" si="5">(C21/B21)-1</f>
         <v>0</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="32">
         <f t="shared" ref="D22" si="6">(D21/C21)-1</f>
         <v>0</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <f t="shared" ref="E22" si="7">(E21/D21)-1</f>
         <v>0</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="35">
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="76">
         <f>AVERAGE(C22:E22)</f>
         <v>0</v>
       </c>
@@ -3675,17 +3693,17 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="73" t="str" cm="1">
+      <c r="A25" s="71" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_FV(A1,"Industry")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74" cm="1">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2016</v>
       </c>
-      <c r="E25" s="74"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3720,14 +3738,14 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="75" t="str" cm="1">
+      <c r="A27" s="73" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_FV(A1,"Description")</f>
         <v>Sezzle Inc. is a fintech company. The Company’s payment platform increases the purchasing power of consumers by offering interest-free installment plans at online stores and select in-store locations. Its payment options allow consumers to take control over their spending. Its digital payments platform allows merchants to offer their consumers a flexible alternative to traditional credit. Its Sezzle Platform offers a payments solution for consumers that instantly extends credit at the point-of-sale, allowing consumers to purchase and receive the ordered merchandise at the time of sale while paying in installments over time. The Sezzle Platform flagship product, pay-in-four, allows consumers to pay a fourth of the purchase price up front, and then another fourth of the purchase price every two weeks thereafter over a total of six weeks. Its Sezzle Virtual Card allows consumers to access the Sezzle Platform in the form of close-end installment loans and shop with merchants.</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3743,11 +3761,11 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3763,11 +3781,11 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3783,11 +3801,11 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -3803,11 +3821,11 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -3823,11 +3841,11 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3843,11 +3861,11 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3863,11 +3881,11 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3883,11 +3901,11 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>

--- a/Financials/SEZL.xlsx
+++ b/Financials/SEZL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68426DA1-2756-7748-9E67-0C09291F93C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89520E6-7653-7C4D-AD82-8E93DACDCFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -654,6 +654,9 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -673,9 +676,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1936,13 +1936,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>269.16000000000003</v>
-    <v>9.01</v>
-    <v>2.6459999999999999</v>
-    <v>8.44</v>
-    <v>3.4872E-2</v>
-    <v>37.53</v>
-    <v>0.149838</v>
+    <v>454.16</v>
+    <v>9.75</v>
+    <v>6.64</v>
+    <v>14.74</v>
+    <v>3.8286000000000001E-2</v>
+    <v>-0.28000000000000003</v>
+    <v>-7.0050000000000006E-4</v>
     <v>USD</v>
     <v>Sezzle Inc. is a fintech company. The Company’s payment platform increases the purchasing power of consumers by offering interest-free installment plans at online stores and select in-store locations. Its payment options allow consumers to take control over their spending. Its digital payments platform allows merchants to offer their consumers a flexible alternative to traditional credit. Its Sezzle Platform offers a payments solution for consumers that instantly extends credit at the point-of-sale, allowing consumers to purchase and receive the ordered merchandise at the time of sale while paying in installments over time. The Sezzle Platform flagship product, pay-in-four, allows consumers to pay a fourth of the purchase price up front, and then another fourth of the purchase price every two weeks thereafter over a total of six weeks. Its Sezzle Virtual Card allows consumers to access the Sezzle Platform in the form of close-end installment loans and shop with merchants.</v>
     <v>251</v>
@@ -1950,24 +1950,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 NICOLET MALL, SUITE 640, MINNEAPOLIS, MN, 55402 US</v>
-    <v>269.16000000000003</v>
+    <v>400</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45604.038845497656</v>
-    <v>246.91720000000001</v>
-    <v>1350550000</v>
+    <v>45615.037192580472</v>
+    <v>377.81</v>
+    <v>2148336000</v>
     <v>SEZZLE INC.</v>
     <v>SEZZLE INC.</v>
-    <v>249.62</v>
-    <v>35.7318</v>
-    <v>242.03</v>
-    <v>250.47</v>
-    <v>288</v>
+    <v>390.02</v>
+    <v>40.960900000000002</v>
+    <v>385</v>
+    <v>399.74</v>
+    <v>399.46</v>
     <v>5580090</v>
     <v>SEZL</v>
     <v>SEZZLE INC. (XNAS:SEZL)</v>
-    <v>142599</v>
-    <v>89443</v>
+    <v>85827</v>
+    <v>128257</v>
     <v>2016</v>
   </rv>
   <rv s="1">
@@ -2862,18 +2862,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="e" vm="1">
+      <c r="A1" s="70" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -2884,14 +2884,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>250.47</v>
+        <v>399.74</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>6.1110859728506783</v>
+        <v>9.7209773755656101</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2917,10 +2917,10 @@
       <c r="J3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="75"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
@@ -2931,14 +2931,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.4872E-2</v>
+        <v>3.8286000000000001E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>33.763750000000002</v>
+        <v>53.708399999999997</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2979,14 +2979,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>1350550000</v>
+        <v>2148336000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.1838880456110476E-2</v>
+        <v>2.0015491059126693E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3028,7 +3028,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.6459999999999999</v>
+        <v>6.64</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>0.14447036983503536</v>
+        <v>-0.28289514801475635</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3659,7 +3659,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="30"/>
-      <c r="K22" s="76">
+      <c r="K22" s="69">
         <f>AVERAGE(C22:E22)</f>
         <v>0</v>
       </c>
@@ -3693,17 +3693,17 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71" t="str" cm="1">
+      <c r="A25" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_FV(A1,"Industry")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72" cm="1">
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2016</v>
       </c>
-      <c r="E25" s="72"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3738,14 +3738,14 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="73" t="str" cm="1">
+      <c r="A27" s="74" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_FV(A1,"Description")</f>
         <v>Sezzle Inc. is a fintech company. The Company’s payment platform increases the purchasing power of consumers by offering interest-free installment plans at online stores and select in-store locations. Its payment options allow consumers to take control over their spending. Its digital payments platform allows merchants to offer their consumers a flexible alternative to traditional credit. Its Sezzle Platform offers a payments solution for consumers that instantly extends credit at the point-of-sale, allowing consumers to purchase and receive the ordered merchandise at the time of sale while paying in installments over time. The Sezzle Platform flagship product, pay-in-four, allows consumers to pay a fourth of the purchase price up front, and then another fourth of the purchase price every two weeks thereafter over a total of six weeks. Its Sezzle Virtual Card allows consumers to access the Sezzle Platform in the form of close-end installment loans and shop with merchants.</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3761,11 +3761,11 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3781,11 +3781,11 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3801,11 +3801,11 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -3821,11 +3821,11 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -3841,11 +3841,11 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3861,11 +3861,11 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3881,11 +3881,11 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3901,11 +3901,11 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
